--- a/biology/Zoologie/Aulonocara/Aulonocara.xlsx
+++ b/biology/Zoologie/Aulonocara/Aulonocara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aulonocara est un genre de poissons de la famille des Cichlidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FishBase                                           (20 juillet 2015)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (20 juillet 2015) :
 Aulonocara aquilonium Konings, 1995
 Aulonocara auditor (Trewavas, 1935)
 Aulonocara baenschi Meyer &amp; Riehl, 1985 - Paon jaune
@@ -525,7 +539,7 @@
 Aulonocara hansbaenschi Meyer, Riehl &amp; Zetzsche, 1987 - Cichlidé empereur, "Aulonocara Fort Maguire"
 Aulonocara hueseri Meyer, Riehl &amp; Zetzsche, 1987
 Aulonocara jacobfreibergi (Johnson, 1974) - Cichlidé fée, Eureka peacock
-Aulonocara kandeensis Tawil &amp; Allgayer, 1987[2] - Aulonocara maylandi kandeensis - "Blue Orchid Aulonocara"
+Aulonocara kandeensis Tawil &amp; Allgayer, 1987 - Aulonocara maylandi kandeensis - "Blue Orchid Aulonocara"
 Aulonocara koningsi Tawil, 2003
 Aulonocara korneliae Meyer, Riehl &amp; Zetzsche, 1987 - Aulonocara chizumulu
 Aulonocara maylandi Trewavas, 1984
@@ -535,48 +549,7 @@
 Aulonocara steveni Meyer, Riehl &amp; Zetzsche, 1987
 Aulonocara stonemani (Burgess &amp; Axelrod, 1973)
 Aulonocara stuartgranti Meyer &amp; Riehl, 1985 - "Paon flavescent"
-Aulonocara trematocephalum (Boulenger, 1901)
-Variétés géographiques, espèces non décrites
-Un grand nombre des espèces ci-dessus possèdent des variantes géographiques, influençant sur les caractéristiques méristiques et la coloration ; ainsi qu'un certain nombre sont non encore décrite. (MalawiDream[3] sur le net, possède une carte détaillée du lac Malawi avec tous les lieux de collecte du genre Aulonocara[4]) - Liste non exhaustive :
-Aulonocara sp. "Nagara"[5]
-Aulonocara sp. "Lupingu" Andreas spreinat (1993)[6],[7]
-Aulonocara sp. "Iwanda" Hai Reef[8]
-Aulonocara sp. "Lwanda"[9],[10],[7] - Aulonocara sp. "lwanda" Hai Reef[11]
-Aulonocara sp. "trematocranus masinje"[12],[7],[11]
-Aulonocara sp. "Chitande type Kande"[7]
-Aulonocara sp. "Chitande type Masinje"[7],[11]
-Aulonocara sp. "Chitande type Mozambique"[7],[11]
-Aulonocara sp. "Chitande type Nkhomo"[7] - Aulonocara sp. "chitande type nkhomo" Nkhomo Reef[11]
-Aulonocara sp. "Chitande type north"[7],[11]
-Aulonocara sp. "Jalo"[7]
-Aulonocara sp. "Lemon" aka "Mamelela"[7]
-Aulonocara sp. "Maleri" aka "Chipoka"[7]
-Aulonocara sp. "Mbenji" aka "Regal"[7]
-Aulonocara sp. "Nhkata Bay white dorsal"[7]
-Aulonocara sp. "Nyassae Mumbo"[7]
-Aulonocara sp. "Walteri"[7] - Aulonocara sp. "walteri" Likoma Island[11]
-Aulonocara sp. "yellow collar"[7],[11]
-Aulonocara sp. "pyramid"[11]
-Aulonocara sp. "stuartgranti maleri"[11]
-Aulonocara stuartgranti
-Aulonocara stuartgranti "Chesese"[13]
-Aulonocara stuartgranti "Chilumba"[13] - (bleu a bande rouge)
-Aulonocara stuartgranti "Chitimba"[13] - Aulonocara stuartgranti "Chitimba Bay (Maisoni)"
-Aulonocara stuartgranti "Cobue"[13]
-Aulonocara stuartgranti "Fort Mc Guire"[13]
-Aulonocara stuartgranti "Maisoni"[13]
-Aulonocara stuartgranti "Maleri"[13] - Aulonocara sp. "stuartgranti maleri"[14] - (tout jaune)
-Aulonocara sp. "stuartgranti maleri Chitseko"[15]
-Aulonocara stuartgranti "Maulana"[13]
-Aulonocara koningsi "Mbenji"[13]
-Aulonocara stuartgranti "Mdoka"[13]
-Aulonocara stuartgranti "Mkondowe"[13]
-Aulonocara stuartgranti "Nakatenga"[13]
-Aulonocara stuartgranti "Sanga"[13]
-Aulonocara stuartgranti "Usisya"[13] - (jaune à tête bleu)
-Aulonocara stuartgranti "Ngara"[16],[17],[18],[19]
-Aulonocara stuartgranti "Chizi Point"[20],[21]
-</t>
+Aulonocara trematocephalum (Boulenger, 1901)</t>
         </is>
       </c>
     </row>
@@ -601,16 +574,93 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variétés géographiques, espèces non décrites</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un grand nombre des espèces ci-dessus possèdent des variantes géographiques, influençant sur les caractéristiques méristiques et la coloration ; ainsi qu'un certain nombre sont non encore décrite. (MalawiDream sur le net, possède une carte détaillée du lac Malawi avec tous les lieux de collecte du genre Aulonocara) - Liste non exhaustive :
+Aulonocara sp. "Nagara"
+Aulonocara sp. "Lupingu" Andreas spreinat (1993),
+Aulonocara sp. "Iwanda" Hai Reef
+Aulonocara sp. "Lwanda" - Aulonocara sp. "lwanda" Hai Reef
+Aulonocara sp. "trematocranus masinje"
+Aulonocara sp. "Chitande type Kande"
+Aulonocara sp. "Chitande type Masinje",
+Aulonocara sp. "Chitande type Mozambique",
+Aulonocara sp. "Chitande type Nkhomo" - Aulonocara sp. "chitande type nkhomo" Nkhomo Reef
+Aulonocara sp. "Chitande type north",
+Aulonocara sp. "Jalo"
+Aulonocara sp. "Lemon" aka "Mamelela"
+Aulonocara sp. "Maleri" aka "Chipoka"
+Aulonocara sp. "Mbenji" aka "Regal"
+Aulonocara sp. "Nhkata Bay white dorsal"
+Aulonocara sp. "Nyassae Mumbo"
+Aulonocara sp. "Walteri" - Aulonocara sp. "walteri" Likoma Island
+Aulonocara sp. "yellow collar",
+Aulonocara sp. "pyramid"
+Aulonocara sp. "stuartgranti maleri"
+Aulonocara stuartgranti
+Aulonocara stuartgranti "Chesese"
+Aulonocara stuartgranti "Chilumba" - (bleu a bande rouge)
+Aulonocara stuartgranti "Chitimba" - Aulonocara stuartgranti "Chitimba Bay (Maisoni)"
+Aulonocara stuartgranti "Cobue"
+Aulonocara stuartgranti "Fort Mc Guire"
+Aulonocara stuartgranti "Maisoni"
+Aulonocara stuartgranti "Maleri" - Aulonocara sp. "stuartgranti maleri" - (tout jaune)
+Aulonocara sp. "stuartgranti maleri Chitseko"
+Aulonocara stuartgranti "Maulana"
+Aulonocara koningsi "Mbenji"
+Aulonocara stuartgranti "Mdoka"
+Aulonocara stuartgranti "Mkondowe"
+Aulonocara stuartgranti "Nakatenga"
+Aulonocara stuartgranti "Sanga"
+Aulonocara stuartgranti "Usisya" - (jaune à tête bleu)
+Aulonocara stuartgranti "Ngara"
+Aulonocara stuartgranti "Chizi Point",
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aulonocara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aulonocara</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Croisement, hybridation, sélection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est impératif de maintenir les espèces du genre Aulonocara seules ou en compagnie d'autres espèces d'autres genres, mais de provenance similaire (lac Malawi), toutes les femelles du genre Aulonocara étant très semblables. Le commerce aquariophile a également vu apparaitre un grand nombre de spécimens provenant d'Asie notamment aux couleurs des plus farfelues ou albinos provenant de sélection, hybridation ou procédés chimiques. Visuellement, ils sont de forme ou d'aspect parfois plus attrayants mais l'aspect « voilé », « bubble » ou autres aberrations et dégénérescences est associé la majorité du temps à des troubles de comportement.
 Quelques noms commerciaux utilisés (non exhaustif) :
-Aulonocara sp. hybride - « m'benji marmelade », « Aulonocara Marmelade », « Aulonocara OB marmalade », « marmelade cat »[22]
-Aulonocara sp. hybride - « Aulonocara maleri », « Yellow Peacock », « Sunshine Peacock », « Orange Aulonocara"[23]
-Aulonocara « Red Rubin » hybride - Aulonocara sp. « Ruby Red », « Aulonocara red ruben »[24]
+Aulonocara sp. hybride - « m'benji marmelade », « Aulonocara Marmelade », « Aulonocara OB marmalade », « marmelade cat »
+Aulonocara sp. hybride - « Aulonocara maleri », « Yellow Peacock », « Sunshine Peacock », « Orange Aulonocara"
+Aulonocara « Red Rubin » hybride - Aulonocara sp. « Ruby Red », « Aulonocara red ruben »
 Aulonocara sp. Safran - Hybride
 			commercialement : "A. nyassae albinos" de sélection principalement asiatique (dénomination pouvant variée suivant le revendeur)
 			commercialement : "A. jacobfreibergi eureka red" mâle de sélection et de laboratoire rouge sang
